--- a/HW/VOCA TEST.xlsx
+++ b/HW/VOCA TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hangjoo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68824E4B-8062-48DB-883B-F9BD9C45D270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7EDDE-9E91-44AC-BC79-39FFC0591DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E95A44DE-2361-44D2-9F89-A904B911539D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="375">
   <si>
     <t>단어</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1255,7 +1255,283 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용법 : Rand열(M1)에 있는 아래화살표 클릭 -&gt; 숫자 오름차순 or 내림차순 정렬</t>
+    <t>day 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ↓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be due to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>company regulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry-level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experienced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restructure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>résumé</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take over</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be due on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be in charge of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover one's shift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall behind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill in for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make the deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up the time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet the deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss the deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on duty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put in extra hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put in some overtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work overtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agenda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio-visual equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit reprot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat in groups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver a presentation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>share thoughts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용법 : Rand열(M1)에 있는 아래화살표 클릭 -&gt; 숫자 오름차순 or 내림차순 정렬        밑에 LC 부분도 해줘야합니다~</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1562,22 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1382,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,9 +1702,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,12 +1717,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1474,9 +1796,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1491,20 +1810,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF430D48-54FA-4459-92A7-D4F4D1BE9A6D}" name="표1" displayName="표1" ref="H1:M101" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
-  <autoFilter ref="H1:M101" xr:uid="{9C71F557-9B1A-4D1F-8648-02EA1F7C3BF8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:M101">
-    <sortCondition descending="1" ref="J1:J101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF430D48-54FA-4459-92A7-D4F4D1BE9A6D}" name="표1" displayName="표1" ref="H4:M104" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="H4:M104" xr:uid="{9C71F557-9B1A-4D1F-8648-02EA1F7C3BF8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:M104">
+    <sortCondition descending="1" ref="J4:J104"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EBD393BD-642A-4774-9C2C-5557F6AA1B63}" name="Index" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{EBD393BD-642A-4774-9C2C-5557F6AA1B63}" name="Index" dataDxfId="11">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2F690B84-F590-46E8-B60C-B17E1B6A999A}" name="Day 1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A76241AC-0FFC-4A22-B733-881D04FE2BF6}" name="Day 2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BCD5BE3E-F7BC-4031-A0BD-1AE3A41BC55E}" name="Day 3" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{706DF447-8EFA-43A6-8C4E-73D358652010}" name="Day 4" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2F690B84-F590-46E8-B60C-B17E1B6A999A}" name="Day 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A76241AC-0FFC-4A22-B733-881D04FE2BF6}" name="Day 2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BCD5BE3E-F7BC-4031-A0BD-1AE3A41BC55E}" name="Day 3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{706DF447-8EFA-43A6-8C4E-73D358652010}" name="Day 4" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{3A79B740-A1B4-4842-B877-F48E73237D2D}" name="Rand">
+      <calculatedColumnFormula>RAND()</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB6A64C0-DD8F-4C07-A2AE-8617BB864577}" name="표2" displayName="표2" ref="H107:M129" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="H107:M129" xr:uid="{55EC74DE-CC61-4B78-A6A7-E5F380860B99}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H108:M129">
+    <sortCondition ref="M107:M129"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DFD5072B-C4C4-4300-9DB6-0822DA3B7EAE}" name="Index" dataDxfId="6">
+      <calculatedColumnFormula>ROW()-107</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{10F757D3-69C9-477F-83DD-EA11DEE59AED}" name="day 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{18F864BB-3766-46CD-99FA-2A69618FF903}" name="day 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0A5DCB2F-A5EE-4D12-A78E-91EFB56DD0D4}" name="day 3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3BDB26BE-59C8-4C8F-B002-64FA2CC93867}" name="day 4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5F35F2AB-D911-48C9-BDE7-15809E463689}" name="Rand">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1809,20 +2150,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF703879-555C-4556-AD14-FFEE226A3BEC}">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="10" customWidth="1"/>
     <col min="7" max="7" width="3.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="4"/>
     <col min="9" max="12" width="14.125" style="3" customWidth="1"/>
@@ -1833,103 +2174,65 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="H1" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
-        <f>$I2</f>
+        <f>$I5</f>
         <v>undetermined</v>
       </c>
       <c r="C2" s="8" t="str">
-        <f>$J2</f>
+        <f>$J5</f>
         <v>wage</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>$K2</f>
+        <f>$K5</f>
         <v>statistical</v>
       </c>
-      <c r="H2" s="4">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.85191929926011789</v>
-      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="str">
-        <f t="shared" ref="A3:A43" si="0">$I3</f>
+        <f t="shared" ref="A3:A43" si="0">$I6</f>
         <v>emerge</v>
       </c>
       <c r="C3" s="8" t="str">
-        <f t="shared" ref="C3:C43" si="1">$J3</f>
+        <f t="shared" ref="C3:C43" si="1">$J6</f>
         <v>unreasonable</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E43" si="2">$K3</f>
+        <f t="shared" ref="E3:E43" si="2">$K6</f>
         <v>recall</v>
       </c>
-      <c r="H3" s="4">
-        <f>ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.20000426268184257</v>
+      <c r="M3" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1945,23 +2248,26 @@
         <f t="shared" si="2"/>
         <v>overhaul</v>
       </c>
-      <c r="H4" s="4">
-        <f>ROW()-1</f>
+      <c r="G4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="1">
-        <f ca="1">RAND()</f>
-        <v>6.9038188437769099E-2</v>
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1977,23 +2283,24 @@
         <f t="shared" si="2"/>
         <v>assembly</v>
       </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" ref="H5:H36" si="3">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.69303931523900864</v>
+        <f t="shared" ref="M5:M36" ca="1" si="4">RAND()</f>
+        <v>0.95113706479251725</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2010,22 +2317,22 @@
         <v>proposed</v>
       </c>
       <c r="H6" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.24488740766366113</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.89645753661996763</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2042,22 +2349,22 @@
         <v>workstation</v>
       </c>
       <c r="H7" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.54273944795350793</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9067770450924626</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2074,22 +2381,22 @@
         <v>crop</v>
       </c>
       <c r="H8" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.53169634451359982</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.80680664735833796</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2106,22 +2413,22 @@
         <v>version</v>
       </c>
       <c r="H9" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.94447474566384604</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.69186709109327549</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2138,22 +2445,22 @@
         <v>recruit</v>
       </c>
       <c r="H10" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.92131677530965861</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.91239413490376153</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2170,22 +2477,22 @@
         <v>view</v>
       </c>
       <c r="H11" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.71723516472916327</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.89548693460482054</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2202,22 +2509,22 @@
         <v>order</v>
       </c>
       <c r="H12" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.15225385360829291</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1610798753321282</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2234,22 +2541,22 @@
         <v>interaction</v>
       </c>
       <c r="H13" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.50218334739501747</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32660763319018649</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2266,22 +2573,22 @@
         <v>incompatibility</v>
       </c>
       <c r="H14" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.61650104048545162</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.35931273265900432</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2298,22 +2605,22 @@
         <v>approach</v>
       </c>
       <c r="H15" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.41906977329668527</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.96710804535692163</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2330,22 +2637,22 @@
         <v>immediately</v>
       </c>
       <c r="H16" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.34704364617993244</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0596524719722682E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2362,22 +2669,22 @@
         <v>list</v>
       </c>
       <c r="H17" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.65427536406512166</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.90196803329522335</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2394,22 +2701,22 @@
         <v>quality goods</v>
       </c>
       <c r="H18" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.18731703833134328</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16998277061959888</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2426,22 +2733,22 @@
         <v>urgency</v>
       </c>
       <c r="H19" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.41761273006582778</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.43558363463288696</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2458,22 +2765,22 @@
         <v>forfeit</v>
       </c>
       <c r="H20" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.64072446604326039</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.87818944047023628</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2490,22 +2797,22 @@
         <v>favorable</v>
       </c>
       <c r="H21" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.56969487807841468</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.37433968343545698</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2522,22 +2829,22 @@
         <v>adhere to</v>
       </c>
       <c r="H22" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.70211751106958875</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.98081219758268512</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2554,22 +2861,22 @@
         <v>revenue</v>
       </c>
       <c r="H23" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.88950218268694292</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.85453445799426209</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2586,22 +2893,22 @@
         <v>solid</v>
       </c>
       <c r="H24" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.49478537450340432</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.57459316636055446</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2618,22 +2925,22 @@
         <v>code of conduct</v>
       </c>
       <c r="H25" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.24705091525266876</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.38448060782737037</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2650,22 +2957,22 @@
         <v>aid</v>
       </c>
       <c r="H26" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.79509163830661833</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.47718469875268965</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2682,22 +2989,22 @@
         <v>lodging</v>
       </c>
       <c r="H27" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.71991490345311793</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.75338304651449051</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2714,22 +3021,22 @@
         <v>medication</v>
       </c>
       <c r="H28" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.70990019003976146</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.5232419607706883</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2746,22 +3053,22 @@
         <v>over-the-counter</v>
       </c>
       <c r="H29" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.30793174174983484</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.36083880654269507</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2778,22 +3085,22 @@
         <v>epiemic</v>
       </c>
       <c r="H30" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.87957379418332926</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.86599179091441281</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2810,22 +3117,22 @@
         <v>public relations department</v>
       </c>
       <c r="H31" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.25111978566697812</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13964442494150775</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2842,22 +3149,22 @@
         <v>individualism</v>
       </c>
       <c r="H32" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.45773619917549324</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24854689116275031</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2874,22 +3181,22 @@
         <v>density</v>
       </c>
       <c r="H33" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.50118217941637111</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.57500628630183814</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2906,22 +3213,22 @@
         <v>store</v>
       </c>
       <c r="H34" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.58872513500500556</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8523390004476354E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2938,22 +3245,22 @@
         <v>achieve</v>
       </c>
       <c r="H35" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.49774653270023439</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3915672661255973E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2970,22 +3277,22 @@
         <v>headquarters</v>
       </c>
       <c r="H36" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.94366771342639977</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.40451006520175248</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3002,22 +3309,22 @@
         <v>dissolve</v>
       </c>
       <c r="H37" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" ref="H37:H68" si="5">ROW()-1</f>
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.65040300037848131</v>
+        <f t="shared" ref="M37:M68" ca="1" si="6">RAND()</f>
+        <v>0.63729813973791394</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3034,22 +3341,22 @@
         <v>scretary</v>
       </c>
       <c r="H38" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.21287462477759378</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.87508924848093494</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3066,22 +3373,22 @@
         <v>temporary</v>
       </c>
       <c r="H39" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.55341911940107102</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.68081255226456472</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3098,22 +3405,22 @@
         <v>push</v>
       </c>
       <c r="H40" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.85368803166119922</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.36232954288135055</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3130,22 +3437,22 @@
         <v>disappear</v>
       </c>
       <c r="H41" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.66566768601653237</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.3552868521633763</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3162,22 +3469,22 @@
         <v>hundreds of</v>
       </c>
       <c r="H42" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.18697919178936973</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6562674752580402E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3194,2198 +3501,2820 @@
         <v>tuition fee</v>
       </c>
       <c r="H43" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.95910979361482118</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.93761284351262109</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="4"/>
       <c r="H44" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.11028802792725745</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51500644167303189</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="str">
-        <f>$I44</f>
+      <c r="A45" s="11" t="str">
+        <f>$I47</f>
         <v>release</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14" t="str">
-        <f>$J44</f>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13" t="str">
+        <f>$J47</f>
         <v>obtainmnet</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="str">
-        <f>$K44</f>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="str">
+        <f>$K47</f>
         <v>council</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="12"/>
       <c r="H45" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.59476380452534017</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47620722861672704</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="str">
-        <f t="shared" ref="A46:A86" si="3">$I45</f>
+      <c r="A46" s="11" t="str">
+        <f t="shared" ref="A46:A86" si="7">$I48</f>
         <v>interpret</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14" t="str">
-        <f t="shared" ref="C46:C86" si="4">$J45</f>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13" t="str">
+        <f t="shared" ref="C46:C86" si="8">$J48</f>
         <v>objective</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14" t="str">
-        <f t="shared" ref="E46:E86" si="5">$K45</f>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13" t="str">
+        <f t="shared" ref="E46:E86" si="9">$K48</f>
         <v>set aside</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="12"/>
       <c r="H46" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.43481154776804209</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.9068157992887188</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A47" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>stamina</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>objectionable</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14" t="str">
+      <c r="D47" s="12"/>
+      <c r="E47" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>nutrient</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="H47" s="4">
         <f t="shared" si="5"/>
-        <v>nutrient</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="H47" s="4">
-        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.73841450711531464</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.40316736559458533</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A48" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>deliver</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>obey</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14" t="str">
+      <c r="D48" s="12"/>
+      <c r="E48" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>inessential</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <f t="shared" si="5"/>
-        <v>inessential</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="H48" s="4">
-        <f>ROW()-1</f>
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.61031725722666019</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4554830855511186</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A49" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>rate</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>membership</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14" t="str">
+      <c r="D49" s="12"/>
+      <c r="E49" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>capitalism</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
         <f t="shared" si="5"/>
-        <v>capitalism</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="H49" s="4">
-        <f>ROW()-1</f>
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.17760975428144299</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.97694222925699381</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A50" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>quite</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>manufacturer</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14" t="str">
+      <c r="D50" s="12"/>
+      <c r="E50" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>intense</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="H50" s="4">
         <f t="shared" si="5"/>
-        <v>intense</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="H50" s="4">
-        <f>ROW()-1</f>
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="1">
-        <f ca="1">RAND()</f>
-        <v>8.4285824897824102E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.40829322900801235</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A51" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>marginal</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>mandatory</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="str">
+      <c r="D51" s="12"/>
+      <c r="E51" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>convince</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="H51" s="4">
         <f t="shared" si="5"/>
-        <v>convince</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4">
-        <f>ROW()-1</f>
         <v>50</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.14575153456711909</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.90911306034964334</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A52" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>based in</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>make it a point to do</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="str">
+      <c r="D52" s="12"/>
+      <c r="E52" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>take A into consideration</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="H52" s="4">
         <f t="shared" si="5"/>
-        <v>take A into consideration</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="H52" s="4">
-        <f>ROW()-1</f>
         <v>51</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.44213689495994135</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.12003503248976122</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A53" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>enclose</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>legitimate</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14" t="str">
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>take shape</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="H53" s="4">
         <f t="shared" si="5"/>
-        <v>take shape</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="H53" s="4">
-        <f>ROW()-1</f>
         <v>52</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.37629594547562129</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.96872357114575469</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A54" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>take steps</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>landfill</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14" t="str">
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>occur</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="H54" s="4">
         <f t="shared" si="5"/>
-        <v>occur</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="H54" s="4">
-        <f>ROW()-1</f>
         <v>53</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.21382017135760545</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.85999520260108531</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A55" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>response</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>jury</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14" t="str">
+      <c r="D55" s="12"/>
+      <c r="E55" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>middle class</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <f t="shared" si="5"/>
-        <v>middle class</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="H55" s="4">
-        <f>ROW()-1</f>
         <v>54</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.69222583664227344</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.80857753236769747</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A56" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>reliable</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>issue</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14" t="str">
+      <c r="D56" s="12"/>
+      <c r="E56" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>precation</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="H56" s="4">
         <f t="shared" si="5"/>
-        <v>precation</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="H56" s="4">
-        <f>ROW()-1</f>
         <v>55</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="1">
-        <f ca="1">RAND()</f>
-        <v>7.0259076467567017E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.63439451837445993</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A57" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>contraction</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>invalid</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14" t="str">
+      <c r="D57" s="12"/>
+      <c r="E57" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>fertilizer</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="H57" s="4">
         <f t="shared" si="5"/>
-        <v>fertilizer</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="H57" s="4">
-        <f>ROW()-1</f>
         <v>56</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.91411043130559866</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.3631046403275271</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A58" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>glazed</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>instructive</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14" t="str">
+      <c r="D58" s="12"/>
+      <c r="E58" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>the number of</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="H58" s="4">
         <f t="shared" si="5"/>
-        <v>the number of</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="H58" s="4">
-        <f>ROW()-1</f>
         <v>57</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="1">
-        <f ca="1">RAND()</f>
-        <v>7.300832563649029E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.5891767425376262</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A59" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>submit</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>inherent</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14" t="str">
+      <c r="D59" s="12"/>
+      <c r="E59" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>streamline</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="H59" s="4">
         <f t="shared" si="5"/>
-        <v>streamline</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="H59" s="4">
-        <f>ROW()-1</f>
         <v>58</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.40737679815384331</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57591472496797835</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A60" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>production plant</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>influence</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14" t="str">
+      <c r="D60" s="12"/>
+      <c r="E60" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>chef</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="H60" s="4">
         <f t="shared" si="5"/>
-        <v>chef</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="H60" s="4">
-        <f>ROW()-1</f>
         <v>59</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="1">
-        <f ca="1">RAND()</f>
-        <v>3.5897612917081712E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19832619333002266</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A61" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>undertake</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>in response to</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14" t="str">
+      <c r="D61" s="12"/>
+      <c r="E61" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>suggest</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="H61" s="4">
         <f t="shared" si="5"/>
-        <v>suggest</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="H61" s="4">
-        <f>ROW()-1</f>
         <v>60</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.21251382081568804</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43078188749395085</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A62" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>lose weight</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>highway</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14" t="str">
+      <c r="D62" s="12"/>
+      <c r="E62" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>collapse</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="H62" s="4">
         <f t="shared" si="5"/>
-        <v>collapse</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="H62" s="4">
-        <f>ROW()-1</f>
         <v>61</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.24708436330391659</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.59210499753955859</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A63" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>conduction</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>highly</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14" t="str">
+      <c r="D63" s="12"/>
+      <c r="E63" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>restore</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="H63" s="4">
         <f t="shared" si="5"/>
-        <v>restore</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="H63" s="4">
-        <f>ROW()-1</f>
         <v>62</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="1">
-        <f ca="1">RAND()</f>
-        <v>5.5712534438311256E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.76562490522802584</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="A64" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>supervision</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14" t="str">
-        <f t="shared" si="4"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>go ahead</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14" t="str">
+      <c r="D64" s="12"/>
+      <c r="E64" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>negatively</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="H64" s="4">
         <f t="shared" si="5"/>
-        <v>negatively</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="H64" s="4">
-        <f>ROW()-1</f>
         <v>63</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.64320686847276332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50600402599977634</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>blackout</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>generate</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14" t="str">
+      <c r="A65" s="11" t="str">
+        <f>$I108</f>
+        <v>career</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13" t="str">
+        <f>$J108</f>
+        <v>cover one's shift</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13" t="str">
+        <f>$K108</f>
+        <v>call off</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="H65" s="4">
         <f t="shared" si="5"/>
-        <v>environment</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="H65" s="4">
-        <f>ROW()-1</f>
         <v>64</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.284315038036561</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38861021729241019</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>well-known</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>form</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14" t="str">
+      <c r="A66" s="11" t="str">
+        <f t="shared" ref="A66:A86" si="10">$I109</f>
+        <v>status</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13" t="str">
+        <f t="shared" ref="C66:C86" si="11">$J109</f>
+        <v>substitute</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13" t="str">
+        <f t="shared" ref="E66:E86" si="12">$K109</f>
+        <v>set up</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="H66" s="4">
         <f t="shared" si="5"/>
-        <v>incur</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="H66" s="4">
-        <f>ROW()-1</f>
         <v>65</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.31400950487278134</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43265371603847458</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>historic site</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>fledgling</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14" t="str">
+      <c r="A67" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>restructure</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>put in extra hours</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>put off</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="H67" s="4">
         <f t="shared" si="5"/>
-        <v>investment</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="H67" s="4">
-        <f>ROW()-1</f>
         <v>66</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.16401346229766134</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2565119656353652E-2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>spare</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>exempt</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14" t="str">
+      <c r="A68" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>résumé</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>put in some overtime</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>resume</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="H68" s="4">
         <f t="shared" si="5"/>
-        <v>multinational</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="H68" s="4">
-        <f>ROW()-1</f>
         <v>67</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.59368763412993086</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.72616469192096578</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>remark</v>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>executives</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>grade point average</v>
-      </c>
-      <c r="F69" s="13"/>
+      <c r="A69" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>recruit</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>on duty</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>postpone</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="H69" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" ref="H69:H104" si="13">ROW()-1</f>
         <v>68</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.31779868077045059</v>
+        <f t="shared" ref="M69:M104" ca="1" si="14">RAND()</f>
+        <v>0.70218530981490312</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>budget</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>exclude</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>a series of</v>
-      </c>
-      <c r="F70" s="13"/>
+      <c r="A70" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>company regulation</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>fall behind</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>chat in groups</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="H70" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.88698932951278631</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.90130296166771173</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>appreciative</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>evaluate</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>insist</v>
-      </c>
-      <c r="F71" s="13"/>
+      <c r="A71" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>administrative</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>assignment</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>address</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="H71" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.22372008724261561</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.39802031467931265</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>traditional</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>especially</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>throughout the country</v>
-      </c>
-      <c r="F72" s="13"/>
+      <c r="A72" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>manual</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>meet the deadline</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>hand out</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="H72" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.44171733233015409</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.57570029950533508</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>surchare</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>entrepreneur</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>trust</v>
-      </c>
-      <c r="F73" s="13"/>
+      <c r="A73" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>reference</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>on schedule</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>preside</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="H73" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.91732321365548863</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.69968927698008843</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>affected</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>enterprise</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>subsidies</v>
-      </c>
-      <c r="F74" s="13"/>
+      <c r="A74" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>entry-level</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>fill out</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>discussion</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="H74" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.62630730447161842</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11968788657800378</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>be subject to</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>elaborate</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>work</v>
-      </c>
-      <c r="F75" s="13"/>
+      <c r="A75" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>time card</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>workload</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>take time</v>
+      </c>
+      <c r="F75" s="12"/>
       <c r="H75" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.40771835002811385</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.49444210658075993</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>give away</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>downturn</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>raise</v>
-      </c>
-      <c r="F76" s="13"/>
+      <c r="A76" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>be due to</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>commitment</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>audio-visual equipment</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="H76" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="1">
-        <f ca="1">RAND()</f>
-        <v>3.0438030338518662E-2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2.305535120303881E-2</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>vibration</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>dominate</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>venue</v>
-      </c>
-      <c r="F77" s="13"/>
+      <c r="A77" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>temporary</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>work overtime</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>take notes</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="H77" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.56277868495670536</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.46897078653654201</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>equipment</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>documentation</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>massive</v>
-      </c>
-      <c r="F78" s="13"/>
+      <c r="A78" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>candidate</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>complete</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>audit reprot</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="H78" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.34271480041550495</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.74207938161896891</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>top</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>discuss</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>power plant</v>
-      </c>
-      <c r="F79" s="13"/>
+      <c r="A79" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>cut staff</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>fill in for</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>deliver a presentation</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="H79" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.74548351216102871</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63070545120304478</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>choic</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>discover</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>concur</v>
-      </c>
-      <c r="F80" s="13"/>
+      <c r="A80" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>promote</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>miss the deadline</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>microphone</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="H80" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="1">
-        <f ca="1">RAND()</f>
-        <v>2.0482924545431991E-2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.31388337334916105</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>rise</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>deserve</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>taste</v>
-      </c>
-      <c r="F81" s="13"/>
+      <c r="A81" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>resign</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>procedure</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>priority</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="H81" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.58273383298386394</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.75409361898874605</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>present</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>cut into</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>motiavte</v>
-      </c>
-      <c r="F82" s="13"/>
+      <c r="A82" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>identification card</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>make up the time</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>finalize</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="H82" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.49524568284587522</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.80634253529858468</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>due</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>creation</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>navigate</v>
-      </c>
-      <c r="F83" s="13"/>
+      <c r="A83" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>take over</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>supervision</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>share thoughts</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="H83" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.36897345432904005</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.96194022513866628</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>proposal</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>courier</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>demographic</v>
-      </c>
-      <c r="F84" s="13"/>
+      <c r="A84" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>applicant</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>be due on</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>agenda</v>
+      </c>
+      <c r="F84" s="12"/>
       <c r="H84" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="1">
-        <f ca="1">RAND()</f>
-        <v>9.5234689568744813E-2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.22651180080694822</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>research</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>cost</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>struggle</v>
-      </c>
-      <c r="F85" s="13"/>
+      <c r="A85" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>experienced</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>make the deadline</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>face</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="H85" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.12998488684653409</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.93343639855834981</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>athletics</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>correction</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>rural</v>
-      </c>
-      <c r="F86" s="13"/>
+      <c r="A86" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>area</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>be in charge of</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>assemble</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="H86" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.50589683778088723</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.49895171096074253</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="4"/>
       <c r="H87" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.71578555021268853</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.41695886647979297</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="13"/>
+      <c r="A88" s="11" t="str">
+        <f>IF(ISBLANK($L5),"",$L5)</f>
+        <v/>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13" t="str">
+        <f>IF(ISBLANK($L108),"",$L108)</f>
+        <v/>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="12"/>
       <c r="H88" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.54958560647158938</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.67804710272684243</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="13"/>
+      <c r="A89" s="11" t="str">
+        <f t="shared" ref="A89:A129" si="15">IF(ISBLANK($L6),"",$L6)</f>
+        <v/>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13" t="str">
+        <f t="shared" ref="C89:C109" si="16">IF(ISBLANK($L109),"",$L109)</f>
+        <v/>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="12"/>
       <c r="H89" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.15900511635315051</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.68908265775492394</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="13"/>
+      <c r="A90" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="12"/>
       <c r="H90" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.94813703757509982</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.34966481116543147</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="13"/>
+      <c r="A91" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.20062352563156183</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.51506756933189723</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="13"/>
+      <c r="A92" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="12"/>
       <c r="H92" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.19178304258043855</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.61526318904201804</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="13"/>
+      <c r="A93" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="12"/>
       <c r="H93" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.20267957597229824</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.73514624033617149</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="13"/>
+      <c r="A94" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="12"/>
       <c r="H94" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.41733492310302156</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.11182896583247182</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="13"/>
+      <c r="A95" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="12"/>
       <c r="H95" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.17335817272232101</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5.9405395796452432E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="13"/>
+      <c r="A96" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="12"/>
       <c r="H96" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.79169920272875149</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.82373593475087348</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="13"/>
+      <c r="A97" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="12"/>
       <c r="H97" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.32253856801512237</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.77212838662126337</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="13"/>
+      <c r="A98" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="12"/>
       <c r="H98" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.28470535598068958</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.56571831471462974</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="13"/>
+      <c r="A99" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="12"/>
       <c r="H99" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.45789887675314489</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.76115021879053923</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="13"/>
+      <c r="A100" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="12"/>
       <c r="H100" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.71885202153032901</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.75564743250030009</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="13"/>
+      <c r="A101" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="12"/>
       <c r="H101" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.79957733939617226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="12"/>
+      <c r="H102" s="4">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L102" s="4"/>
+      <c r="M102" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.9710541157150057E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="12"/>
+      <c r="H103" s="4">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.54682944825033919</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="12"/>
+      <c r="H104" s="4">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.68187439809474992</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="12"/>
+      <c r="M106" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="12"/>
+      <c r="H108" s="4">
+        <f>ROW()-107</f>
+        <v>1</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M108">
         <f ca="1">RAND()</f>
-        <v>0.69339872417498727</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="13"/>
-    </row>
-    <row r="103" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="13"/>
-      <c r="H103" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="13"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="13"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="13"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="13"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="13"/>
+        <v>0.7127697521711861</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="13"/>
+      <c r="A109" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="12"/>
+      <c r="H109" s="4">
+        <f>ROW()-107</f>
+        <v>2</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M109">
+        <f ca="1">RAND()</f>
+        <v>0.77135094886690692</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="13"/>
+      <c r="A110" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="12"/>
+      <c r="H110" s="4">
+        <f>ROW()-107</f>
+        <v>3</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M110">
+        <f ca="1">RAND()</f>
+        <v>0.26498521026930322</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="13"/>
+      <c r="A111" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="12"/>
+      <c r="H111" s="4">
+        <f>ROW()-107</f>
+        <v>4</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M111">
+        <f ca="1">RAND()</f>
+        <v>0.1809006982845438</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="13"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="12"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="12"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="13"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="13"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="12"/>
+      <c r="H112" s="4">
+        <f>ROW()-107</f>
+        <v>5</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M112">
+        <f ca="1">RAND()</f>
+        <v>0.12838410946531609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="12"/>
+      <c r="H113" s="4">
+        <f>ROW()-107</f>
+        <v>6</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M113">
+        <f ca="1">RAND()</f>
+        <v>0.42768173146727162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="12"/>
+      <c r="H114" s="4">
+        <f>ROW()-107</f>
+        <v>7</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M114">
+        <f ca="1">RAND()</f>
+        <v>0.88585157873057863</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="12"/>
+      <c r="H115" s="4">
+        <f>ROW()-107</f>
+        <v>8</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="M115">
+        <f ca="1">RAND()</f>
+        <v>0.34877475223109189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="12"/>
+      <c r="H116" s="4">
+        <f>ROW()-107</f>
+        <v>9</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="M116">
+        <f ca="1">RAND()</f>
+        <v>0.82260869372633805</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="12"/>
+      <c r="H117" s="4">
+        <f>ROW()-107</f>
+        <v>10</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M117">
+        <f ca="1">RAND()</f>
+        <v>0.51651984829015896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="12"/>
+      <c r="H118" s="4">
+        <f>ROW()-107</f>
+        <v>11</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="M118">
+        <f ca="1">RAND()</f>
+        <v>0.20267517336431762</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="12"/>
+      <c r="H119" s="4">
+        <f>ROW()-107</f>
+        <v>12</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="M119">
+        <f ca="1">RAND()</f>
+        <v>0.8722596292153959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="12"/>
+      <c r="H120" s="4">
+        <f>ROW()-107</f>
+        <v>13</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="M120">
+        <f ca="1">RAND()</f>
+        <v>0.56625211534809616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="12"/>
+      <c r="H121" s="4">
+        <f>ROW()-107</f>
+        <v>14</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M121">
+        <f ca="1">RAND()</f>
+        <v>0.38547709130648633</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="12"/>
+      <c r="H122" s="4">
+        <f>ROW()-107</f>
+        <v>15</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M122">
+        <f ca="1">RAND()</f>
+        <v>0.36987316552021055</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="12"/>
+      <c r="H123" s="4">
+        <f>ROW()-107</f>
+        <v>16</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M123">
+        <f ca="1">RAND()</f>
+        <v>0.65343619480509596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="12"/>
+      <c r="H124" s="4">
+        <f>ROW()-107</f>
+        <v>17</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M124">
+        <f ca="1">RAND()</f>
+        <v>0.14384833582635392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="12"/>
+      <c r="H125" s="4">
+        <f>ROW()-107</f>
+        <v>18</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M125">
+        <f ca="1">RAND()</f>
+        <v>0.56109544162642067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="12"/>
+      <c r="H126" s="4">
+        <f>ROW()-107</f>
+        <v>19</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="M126">
+        <f ca="1">RAND()</f>
+        <v>0.30076348549990362</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="12"/>
+      <c r="H127" s="4">
+        <f>ROW()-107</f>
+        <v>20</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="M127">
+        <f ca="1">RAND()</f>
+        <v>0.42987351068578228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="12"/>
+      <c r="H128" s="4">
+        <f>ROW()-107</f>
+        <v>21</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M128">
+        <f ca="1">RAND()</f>
+        <v>0.60946780473749895</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="12"/>
+      <c r="H129" s="4">
+        <f>ROW()-107</f>
+        <v>22</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M129">
+        <f ca="1">RAND()</f>
+        <v>0.35493644196504004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
       <c r="C131" s="3"/>
@@ -5399,7 +6328,7 @@
       <c r="K131"/>
       <c r="L131"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
       <c r="C132" s="3"/>
@@ -5413,7 +6342,7 @@
       <c r="K132"/>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
       <c r="C133" s="3"/>
@@ -5427,7 +6356,7 @@
       <c r="K133"/>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
       <c r="C134" s="3"/>
@@ -5441,7 +6370,7 @@
       <c r="K134"/>
       <c r="L134"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -5455,7 +6384,7 @@
       <c r="K135"/>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
       <c r="C136" s="3"/>
@@ -5469,7 +6398,7 @@
       <c r="K136"/>
       <c r="L136"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
       <c r="C137" s="3"/>
@@ -5483,7 +6412,7 @@
       <c r="K137"/>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="3"/>
@@ -5497,7 +6426,7 @@
       <c r="K138"/>
       <c r="L138"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="3"/>
@@ -5511,7 +6440,7 @@
       <c r="K139"/>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
       <c r="C140" s="3"/>
@@ -5525,7 +6454,7 @@
       <c r="K140"/>
       <c r="L140"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
       <c r="C141" s="3"/>
@@ -5539,7 +6468,7 @@
       <c r="K141"/>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
       <c r="C142" s="3"/>
@@ -5553,7 +6482,7 @@
       <c r="K142"/>
       <c r="L142"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
       <c r="C143" s="3"/>
@@ -5567,7 +6496,7 @@
       <c r="K143"/>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
       <c r="C144" s="3"/>
@@ -7745,11 +8674,6 @@
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299"/>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
-      <c r="K299"/>
-      <c r="L299"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
@@ -7759,11 +8683,6 @@
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
-      <c r="K300"/>
-      <c r="L300"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
@@ -7773,24 +8692,23 @@
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301"/>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="J301"/>
-      <c r="K301"/>
-      <c r="L301"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G302"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
-    <sortCondition ref="G2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G105">
+    <sortCondition ref="G6"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="H103:M105"/>
+    <mergeCell ref="H1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>